--- a/data/processed/state_overviews/kentucky_overview.xlsx
+++ b/data/processed/state_overviews/kentucky_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1138</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1,138</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Adair County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Allen County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>4</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Anderson County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Ballard County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Barren County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>8</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Bell County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>7</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Boone County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>11</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Bourbon County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>4</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Boyd County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>15</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Boyle County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>14</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Bracken County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Breathitt County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>4</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Breckinridge County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>2</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Bullitt County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>8</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Butler County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>3</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Caldwell County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>2</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Calloway County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>6</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Campbell County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>21</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Carroll County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>3</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Carter County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>2</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Christian County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>15</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Clark County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>8</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Clay County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>3</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Clinton County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>2</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Crittenden County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>1</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Cumberland County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>3</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Daviess County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>37</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Edmonson County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>2</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Estill County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>2</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Fayette County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>150</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Fleming County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>1</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Floyd County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>11</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>29</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Fulton County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>1</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Gallatin County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>1</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Garrard County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>1</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Grant County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>2</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Graves County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>10</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Grayson County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>1</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Greenup County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>2</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Hardin County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>21</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Harlan County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>5</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Harrison County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>1</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Hart County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>2</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Henderson County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>18</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Hickman County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>2</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Hopkins County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>14</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>1</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>292</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Jessamine County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>9</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Johnson County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>5</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Kenton County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>45</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Knott County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>4</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Knox County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>3</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Larue County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>1</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Laurel County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>16</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Lawrence County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>1</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Lee County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>2</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Letcher County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>4</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Lewis County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>4</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>2</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Livingston County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>3</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Logan County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>3</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>Lyon County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>1</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,8 +2514,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>20</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,8 +2546,10 @@
           <t>Magoffin County</t>
         </is>
       </c>
-      <c r="B67">
-        <v>1</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,8 +2578,10 @@
           <t>Marion County</t>
         </is>
       </c>
-      <c r="B68">
-        <v>5</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2474,8 +2610,10 @@
           <t>Marshall County</t>
         </is>
       </c>
-      <c r="B69">
-        <v>5</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2504,8 +2642,10 @@
           <t>Mason County</t>
         </is>
       </c>
-      <c r="B70">
-        <v>8</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2534,8 +2674,10 @@
           <t>McCracken County</t>
         </is>
       </c>
-      <c r="B71">
-        <v>23</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2564,8 +2706,10 @@
           <t>McCreary County</t>
         </is>
       </c>
-      <c r="B72">
-        <v>1</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2594,8 +2738,10 @@
           <t>Meade County</t>
         </is>
       </c>
-      <c r="B73">
-        <v>3</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2624,8 +2770,10 @@
           <t>Mercer County</t>
         </is>
       </c>
-      <c r="B74">
-        <v>5</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2654,8 +2802,10 @@
           <t>Metcalfe County</t>
         </is>
       </c>
-      <c r="B75">
-        <v>1</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2684,8 +2834,10 @@
           <t>Monroe County</t>
         </is>
       </c>
-      <c r="B76">
-        <v>1</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2714,8 +2866,10 @@
           <t>Montgomery County</t>
         </is>
       </c>
-      <c r="B77">
-        <v>10</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2744,8 +2898,10 @@
           <t>Morgan County</t>
         </is>
       </c>
-      <c r="B78">
-        <v>2</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2774,8 +2930,10 @@
           <t>Muhlenberg County</t>
         </is>
       </c>
-      <c r="B79">
-        <v>2</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2804,8 +2962,10 @@
           <t>Nelson County</t>
         </is>
       </c>
-      <c r="B80">
-        <v>10</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2834,8 +2994,10 @@
           <t>Ohio County</t>
         </is>
       </c>
-      <c r="B81">
-        <v>2</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2864,8 +3026,10 @@
           <t>Oldham County</t>
         </is>
       </c>
-      <c r="B82">
-        <v>9</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2894,8 +3058,10 @@
           <t>Owsley County</t>
         </is>
       </c>
-      <c r="B83">
-        <v>5</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2924,8 +3090,10 @@
           <t>Pendleton County</t>
         </is>
       </c>
-      <c r="B84">
-        <v>2</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2954,8 +3122,10 @@
           <t>Perry County</t>
         </is>
       </c>
-      <c r="B85">
-        <v>19</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2984,8 +3154,10 @@
           <t>Pike County</t>
         </is>
       </c>
-      <c r="B86">
-        <v>14</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3014,8 +3186,10 @@
           <t>Powell County</t>
         </is>
       </c>
-      <c r="B87">
-        <v>1</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3044,8 +3218,10 @@
           <t>Pulaski County</t>
         </is>
       </c>
-      <c r="B88">
-        <v>12</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3074,8 +3250,10 @@
           <t>Rockcastle County</t>
         </is>
       </c>
-      <c r="B89">
-        <v>2</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3104,8 +3282,10 @@
           <t>Rowan County</t>
         </is>
       </c>
-      <c r="B90">
-        <v>8</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3134,8 +3314,10 @@
           <t>Russell County</t>
         </is>
       </c>
-      <c r="B91">
-        <v>6</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3164,8 +3346,10 @@
           <t>Scott County</t>
         </is>
       </c>
-      <c r="B92">
-        <v>12</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3194,8 +3378,10 @@
           <t>Shelby County</t>
         </is>
       </c>
-      <c r="B93">
-        <v>8</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3224,8 +3410,10 @@
           <t>Simpson County</t>
         </is>
       </c>
-      <c r="B94">
-        <v>9</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3254,8 +3442,10 @@
           <t>Taylor County</t>
         </is>
       </c>
-      <c r="B95">
-        <v>3</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3284,8 +3474,10 @@
           <t>Todd County</t>
         </is>
       </c>
-      <c r="B96">
-        <v>2</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3314,8 +3506,10 @@
           <t>Trigg County</t>
         </is>
       </c>
-      <c r="B97">
-        <v>3</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3344,8 +3538,10 @@
           <t>Union County</t>
         </is>
       </c>
-      <c r="B98">
-        <v>5</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3374,8 +3570,10 @@
           <t>Warren County</t>
         </is>
       </c>
-      <c r="B99">
-        <v>44</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3404,8 +3602,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B100">
-        <v>1</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3434,8 +3634,10 @@
           <t>Webster County</t>
         </is>
       </c>
-      <c r="B101">
-        <v>2</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3464,8 +3666,10 @@
           <t>Whitley County</t>
         </is>
       </c>
-      <c r="B102">
-        <v>7</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3494,8 +3698,10 @@
           <t>Wolfe County</t>
         </is>
       </c>
-      <c r="B103">
-        <v>1</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3524,8 +3730,10 @@
           <t>Woodford County</t>
         </is>
       </c>
-      <c r="B104">
-        <v>5</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3554,27 +3762,29 @@
           <t>Elliott County</t>
         </is>
       </c>
-      <c r="B105">
-        <v>0</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3584,27 +3794,29 @@
           <t>Carlisle County</t>
         </is>
       </c>
-      <c r="B106">
-        <v>0</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3614,27 +3826,29 @@
           <t>Leslie County</t>
         </is>
       </c>
-      <c r="B107">
-        <v>0</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3644,27 +3858,29 @@
           <t>Trimble County</t>
         </is>
       </c>
-      <c r="B108">
-        <v>0</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3674,27 +3890,29 @@
           <t>Menifee County</t>
         </is>
       </c>
-      <c r="B109">
-        <v>0</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3704,27 +3922,61 @@
           <t>Casey County</t>
         </is>
       </c>
-      <c r="B110">
-        <v>0</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1,138</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$2,425,907,719</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>9.25%</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>-10.73%</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>65.64%</t>
         </is>
       </c>
     </row>
@@ -3779,8 +4031,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>196</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3809,8 +4063,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>150</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3839,8 +4095,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>288</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3869,8 +4127,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>118</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3899,8 +4159,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B6">
-        <v>157</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3929,8 +4191,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B7">
-        <v>229</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3959,8 +4223,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1138</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,138</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4034,8 +4300,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>376</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4064,8 +4332,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>268</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4094,8 +4364,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>175</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4124,8 +4396,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>76</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4154,8 +4428,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>172</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4184,8 +4460,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>71</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4214,8 +4492,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1138</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,138</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4289,8 +4569,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>100</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4319,8 +4601,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>91</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4349,8 +4633,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>43</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4379,8 +4665,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>123</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4409,8 +4697,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>33</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4439,8 +4729,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>358</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4469,8 +4761,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>10</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4499,8 +4793,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>84</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4529,8 +4825,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>26</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4559,8 +4857,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>255</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4589,8 +4889,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>15</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4619,8 +4921,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>1138</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1,138</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/kentucky_overview.xlsx
+++ b/data/processed/state_overviews/kentucky_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,103 +431,103 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adair County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$7,156,516</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.62%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-4.19%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Allen County</t>
+          <t>Kentucky</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1,138</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$494,834</t>
+          <t>$2,425,907,719</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.34%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14.21%</t>
+          <t>-10.73%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>65.64%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anderson County</t>
+          <t>Adair County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -537,465 +537,465 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$193,279</t>
+          <t>$7,156,516</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.52%</t>
+          <t>5.62%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.09%</t>
+          <t>-4.19%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ballard County</t>
+          <t>Allen County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$256,031</t>
+          <t>$494,834</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.51%</t>
+          <t>26.34%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-63.64%</t>
+          <t>14.21%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Barren County</t>
+          <t>Anderson County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$10,881,872</t>
+          <t>$193,279</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.57%</t>
+          <t>18.52%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-13.78%</t>
+          <t>5.09%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bell County</t>
+          <t>Ballard County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$12,579,678</t>
+          <t>$256,031</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-3.25%</t>
+          <t>19.51%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-45.76%</t>
+          <t>-63.64%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boone County</t>
+          <t>Barren County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$5,212,953</t>
+          <t>$10,881,872</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.56%</t>
+          <t>8.57%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.87%</t>
+          <t>-13.78%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bourbon County</t>
+          <t>Bell County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$898,338</t>
+          <t>$12,579,678</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19.19%</t>
+          <t>-3.25%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-3.55%</t>
+          <t>-45.76%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Boyd County</t>
+          <t>Boone County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$23,963,041</t>
+          <t>$5,212,953</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.00%</t>
+          <t>8.56%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-17.65%</t>
+          <t>2.87%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>45.45%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Boyle County</t>
+          <t>Bourbon County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,544,214</t>
+          <t>$898,338</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.56%</t>
+          <t>19.19%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-10.92%</t>
+          <t>-3.55%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bracken County</t>
+          <t>Boyd County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$243,801</t>
+          <t>$23,963,041</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.45%</t>
+          <t>7.00%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-54.72%</t>
+          <t>-17.65%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Breathitt County</t>
+          <t>Boyle County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$10,759,010</t>
+          <t>$1,544,214</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13.96%</t>
+          <t>5.56%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-40.08%</t>
+          <t>-10.92%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Breckinridge County</t>
+          <t>Bracken County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$3,235,039</t>
+          <t>$243,801</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.06%</t>
+          <t>3.45%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.98%</t>
+          <t>-54.72%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bullitt County</t>
+          <t>Breathitt County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$1,454,634</t>
+          <t>$10,759,010</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12.78%</t>
+          <t>13.96%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.45%</t>
+          <t>-40.08%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Butler County</t>
+          <t>Breckinridge County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$296,481</t>
+          <t>$3,235,039</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.18%</t>
+          <t>8.06%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-8.74%</t>
+          <t>1.98%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Caldwell County</t>
+          <t>Bullitt County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$4,051,120</t>
+          <t>$1,454,634</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.79%</t>
+          <t>12.78%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-17.99%</t>
+          <t>6.45%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Calloway County</t>
+          <t>Butler County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$944,795</t>
+          <t>$296,481</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.96%</t>
+          <t>7.18%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-40.06%</t>
+          <t>-8.74%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1007,59 +1007,59 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Campbell County</t>
+          <t>Caldwell County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$24,954,986</t>
+          <t>$4,051,120</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>8.79%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-16.82%</t>
+          <t>-17.99%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>80.95%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Carroll County</t>
+          <t>Calloway County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$3,184,277</t>
+          <t>$944,795</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>7.96%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-4.33%</t>
+          <t>-40.06%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1071,187 +1071,187 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Carter County</t>
+          <t>Campbell County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$15,320,045</t>
+          <t>$24,954,986</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-11.13%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-65.72%</t>
+          <t>-16.82%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.95%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Christian County</t>
+          <t>Carroll County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$20,610,359</t>
+          <t>$3,184,277</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.27%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-61.04%</t>
+          <t>-4.33%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Clark County</t>
+          <t>Carter County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$2,896,874</t>
+          <t>$15,320,045</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.49%</t>
+          <t>-11.13%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-51.22%</t>
+          <t>-65.72%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Clay County</t>
+          <t>Christian County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$14,242,805</t>
+          <t>$20,610,359</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-7.44%</t>
+          <t>3.27%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-75.43%</t>
+          <t>-61.04%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Clinton County</t>
+          <t>Clark County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$1,243,671</t>
+          <t>$2,896,874</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>2.49%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-0.09%</t>
+          <t>-51.22%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Crittenden County</t>
+          <t>Clay County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$5,637</t>
+          <t>$14,242,805</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-13.47%</t>
+          <t>-7.44%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-24.21%</t>
+          <t>-75.43%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1263,327 +1263,327 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cumberland County</t>
+          <t>Clinton County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$24,275,603</t>
+          <t>$1,243,671</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.10%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>-0.09%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Daviess County</t>
+          <t>Crittenden County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$82,587,269</t>
+          <t>$5,637</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13.95%</t>
+          <t>-13.47%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-10.89%</t>
+          <t>-24.21%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>64.86%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Edmonson County</t>
+          <t>Cumberland County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$1,647,378</t>
+          <t>$24,275,603</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19.45%</t>
+          <t>3.10%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-5.94%</t>
+          <t>0.69%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Estill County</t>
+          <t>Daviess County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$25,500</t>
+          <t>$82,587,269</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22.25%</t>
+          <t>13.95%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11.05%</t>
+          <t>-10.89%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>64.86%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fayette County</t>
+          <t>Edmonson County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$384,667,450</t>
+          <t>$1,647,378</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9.16%</t>
+          <t>19.45%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-7.56%</t>
+          <t>-5.94%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>66.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fleming County</t>
+          <t>Estill County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$7,378,071</t>
+          <t>$25,500</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.79%</t>
+          <t>22.25%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-94.72%</t>
+          <t>11.05%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Floyd County</t>
+          <t>Fayette County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$42,413,220</t>
+          <t>$384,667,450</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.18%</t>
+          <t>9.16%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-81.49%</t>
+          <t>-7.56%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>66.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Fleming County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$191,869,128</t>
+          <t>$7,378,071</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.88%</t>
+          <t>2.79%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-61.61%</t>
+          <t>-94.72%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>68.97%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fulton County</t>
+          <t>Floyd County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$101,080</t>
+          <t>$42,413,220</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>23.39%</t>
+          <t>6.18%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-76.54%</t>
+          <t>-81.49%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gallatin County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$4,284,002</t>
+          <t>$191,869,128</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.84%</t>
+          <t>1.88%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-44.77%</t>
+          <t>-61.61%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>68.97%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Garrard County</t>
+          <t>Fulton County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1593,17 +1593,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$525</t>
+          <t>$101,080</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-21.31%</t>
+          <t>23.39%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-21.96%</t>
+          <t>-76.54%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1615,27 +1615,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Grant County</t>
+          <t>Gallatin County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$175,818</t>
+          <t>$4,284,002</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19.50%</t>
+          <t>4.84%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-48.18%</t>
+          <t>-44.77%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1647,59 +1647,59 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Graves County</t>
+          <t>Garrard County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$21,499,690</t>
+          <t>$525</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12.10%</t>
+          <t>-21.31%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-51.22%</t>
+          <t>-21.96%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Grayson County</t>
+          <t>Grant County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$3,514,347</t>
+          <t>$175,818</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-257.75%</t>
+          <t>19.50%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-344.33%</t>
+          <t>-48.18%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1711,199 +1711,199 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Greenup County</t>
+          <t>Graves County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$4,879,825</t>
+          <t>$21,499,690</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>12.10%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-88.79%</t>
+          <t>-51.22%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Hardin County</t>
+          <t>Grayson County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$37,169,295</t>
+          <t>$3,514,347</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11.07%</t>
+          <t>-257.75%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-16.04%</t>
+          <t>-344.33%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Harlan County</t>
+          <t>Greenup County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$5,684,353</t>
+          <t>$4,879,825</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9.29%</t>
+          <t>5.48%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-26.75%</t>
+          <t>-88.79%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Harrison County</t>
+          <t>Hardin County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$146,300</t>
+          <t>$37,169,295</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15.50%</t>
+          <t>11.07%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>-16.04%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Hart County</t>
+          <t>Harlan County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$8,843</t>
+          <t>$5,684,353</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>9.29%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>43.55%</t>
+          <t>-26.75%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Henderson County</t>
+          <t>Harrison County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$4,233,255</t>
+          <t>$146,300</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.86%</t>
+          <t>15.50%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-11.80%</t>
+          <t>0.99%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>72.22%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hickman County</t>
+          <t>Hart County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1913,81 +1913,81 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$53,784</t>
+          <t>$8,843</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.92%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-19.37%</t>
+          <t>43.55%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hopkins County</t>
+          <t>Henderson County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$12,545,026</t>
+          <t>$4,233,255</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8.32%</t>
+          <t>3.86%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-13.72%</t>
+          <t>-11.80%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>72.22%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Hickman County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$4,550</t>
+          <t>$53,784</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-4.23%</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-12.61%</t>
+          <t>-19.37%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1999,263 +1999,263 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Hopkins County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$701,931,666</t>
+          <t>$12,545,026</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>9.43%</t>
+          <t>8.32%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-5.63%</t>
+          <t>-13.72%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>61.99%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Jessamine County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$9,532,261</t>
+          <t>$4,550</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14.18%</t>
+          <t>-4.23%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-3.98%</t>
+          <t>-12.61%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Johnson County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>292</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$21,906,771</t>
+          <t>$701,931,666</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.45%</t>
+          <t>9.43%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-67.38%</t>
+          <t>-5.63%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>61.99%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kenton County</t>
+          <t>Jessamine County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$119,715,122</t>
+          <t>$9,532,261</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10.46%</t>
+          <t>14.18%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-4.01%</t>
+          <t>-3.98%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Knott County</t>
+          <t>Johnson County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$2,997,554</t>
+          <t>$21,906,771</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-7.37%</t>
+          <t>4.45%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-40.04%</t>
+          <t>-67.38%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Knox County</t>
+          <t>Kenton County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$8,805,579</t>
+          <t>$119,715,122</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11.62%</t>
+          <t>10.46%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-15.99%</t>
+          <t>-4.01%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Larue County</t>
+          <t>Knott County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$26,062</t>
+          <t>$2,997,554</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>49.72%</t>
+          <t>-7.37%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>29.95%</t>
+          <t>-40.04%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Laurel County</t>
+          <t>Knox County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$21,702,150</t>
+          <t>$8,805,579</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.48%</t>
+          <t>11.62%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-72.14%</t>
+          <t>-15.99%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lawrence County</t>
+          <t>Larue County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2265,17 +2265,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$727,219</t>
+          <t>$26,062</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10.43%</t>
+          <t>49.72%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4.17%</t>
+          <t>29.95%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2287,263 +2287,263 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Lee County</t>
+          <t>Laurel County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$9,660,718</t>
+          <t>$21,702,150</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>41.12%</t>
+          <t>0.48%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-24.85%</t>
+          <t>-72.14%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Letcher County</t>
+          <t>Lawrence County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$10,096,344</t>
+          <t>$727,219</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-1.41%</t>
+          <t>10.43%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-42.25%</t>
+          <t>4.17%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lewis County</t>
+          <t>Lee County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$10,923,762</t>
+          <t>$9,660,718</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-2.23%</t>
+          <t>41.12%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-22.73%</t>
+          <t>-24.85%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Letcher County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$1,153,795</t>
+          <t>$10,096,344</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10.69%</t>
+          <t>-1.41%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-30.48%</t>
+          <t>-42.25%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Livingston County</t>
+          <t>Lewis County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$2,818,292</t>
+          <t>$10,923,762</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6.88%</t>
+          <t>-2.23%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-7.17%</t>
+          <t>-22.73%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Logan County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$360,698</t>
+          <t>$1,153,795</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>20.20%</t>
+          <t>10.69%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-57.23%</t>
+          <t>-30.48%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Lyon County</t>
+          <t>Livingston County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$170,552</t>
+          <t>$2,818,292</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>6.88%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-46.81%</t>
+          <t>-7.17%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Logan County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$93,705,379</t>
+          <t>$360,698</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>20.20%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-7.76%</t>
+          <t>-57.23%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>65.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Magoffin County</t>
+          <t>Lyon County</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2553,17 +2553,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$32,894</t>
+          <t>$170,552</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.37%</t>
+          <t>10.81%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-12.22%</t>
+          <t>-46.81%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2575,347 +2575,347 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Marion County</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$23,432,853</t>
+          <t>$93,705,379</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>8.91%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-5.72%</t>
+          <t>-7.76%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>65.00%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Marshall County</t>
+          <t>Magoffin County</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$2,199,979</t>
+          <t>$32,894</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5.42%</t>
+          <t>3.37%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-1.63%</t>
+          <t>-12.22%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Mason County</t>
+          <t>Marion County</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$5,869,781</t>
+          <t>$23,432,853</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>8.91%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-22.14%</t>
+          <t>-5.72%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>McCracken County</t>
+          <t>Marshall County</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$17,764,213</t>
+          <t>$2,199,979</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>18.13%</t>
+          <t>5.42%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>-1.63%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>47.83%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>McCreary County</t>
+          <t>Mason County</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$2,000</t>
+          <t>$5,869,781</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>16.56%</t>
+          <t>-22.14%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Meade County</t>
+          <t>McCracken County</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$361,698</t>
+          <t>$17,764,213</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6.56%</t>
+          <t>18.13%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-78.79%</t>
+          <t>3.92%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>47.83%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mercer County</t>
+          <t>McCreary County</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$1,526,478</t>
+          <t>$2,000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>11.86%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-11.41%</t>
+          <t>16.56%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Metcalfe County</t>
+          <t>Meade County</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$16,000</t>
+          <t>$361,698</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>46.76%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>38.22%</t>
+          <t>-78.79%</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Monroe County</t>
+          <t>Mercer County</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$3,349,442</t>
+          <t>$1,526,478</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8.88%</t>
+          <t>11.86%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-5.36%</t>
+          <t>-11.41%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Montgomery County</t>
+          <t>Metcalfe County</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$8,251,476</t>
+          <t>$16,000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4.54%</t>
+          <t>46.76%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-22.06%</t>
+          <t>38.22%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Morgan County</t>
+          <t>Monroe County</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$18,214,902</t>
+          <t>$3,349,442</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-0.46%</t>
+          <t>8.88%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-89.35%</t>
+          <t>-5.36%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2927,71 +2927,71 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Muhlenberg County</t>
+          <t>Montgomery County</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$4,073,285</t>
+          <t>$8,251,476</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>30.46%</t>
+          <t>4.54%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>-22.06%</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nelson County</t>
+          <t>Morgan County</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$3,536,483</t>
+          <t>$18,214,902</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>15.30%</t>
+          <t>-0.46%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4.17%</t>
+          <t>-89.35%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ohio County</t>
+          <t>Muhlenberg County</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3001,81 +3001,81 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$466,785</t>
+          <t>$4,073,285</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-9.02%</t>
+          <t>30.46%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-22.92%</t>
+          <t>1.76%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Oldham County</t>
+          <t>Nelson County</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$2,764,330</t>
+          <t>$3,536,483</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>11.39%</t>
+          <t>15.30%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4.35%</t>
+          <t>4.17%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Owsley County</t>
+          <t>Ohio County</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$2,279,835</t>
+          <t>$466,785</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>8.83%</t>
+          <t>-9.02%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>-64.15%</t>
+          <t>-22.92%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3087,219 +3087,219 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Pendleton County</t>
+          <t>Oldham County</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$46,047</t>
+          <t>$2,764,330</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-8.05%</t>
+          <t>11.39%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-26.85%</t>
+          <t>4.35%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Perry County</t>
+          <t>Owsley County</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$97,707,399</t>
+          <t>$2,279,835</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2.76%</t>
+          <t>8.83%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-39.39%</t>
+          <t>-64.15%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>84.21%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Pike County</t>
+          <t>Pendleton County</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$9,013,523</t>
+          <t>$46,047</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>7.73%</t>
+          <t>-8.05%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.56%</t>
+          <t>-26.85%</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Powell County</t>
+          <t>Perry County</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$49,078</t>
+          <t>$97,707,399</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>20.81%</t>
+          <t>2.76%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>8.34%</t>
+          <t>-39.39%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>84.21%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Pulaski County</t>
+          <t>Pike County</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$34,850,521</t>
+          <t>$9,013,523</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4.47%</t>
+          <t>7.73%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-45.44%</t>
+          <t>1.56%</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>42.86%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Rockcastle County</t>
+          <t>Powell County</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$181,569</t>
+          <t>$49,078</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>6.42%</t>
+          <t>20.81%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4.82%</t>
+          <t>8.34%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Rowan County</t>
+          <t>Pulaski County</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$13,498,203</t>
+          <t>$34,850,521</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>6.24%</t>
+          <t>4.47%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-52.41%</t>
+          <t>-45.44%</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3311,199 +3311,199 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Russell County</t>
+          <t>Rockcastle County</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$24,485,737</t>
+          <t>$181,569</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4.14%</t>
+          <t>6.42%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-69.49%</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Scott County</t>
+          <t>Rowan County</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$4,853,463</t>
+          <t>$13,498,203</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10.33%</t>
+          <t>6.24%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>-4.48%</t>
+          <t>-52.41%</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Shelby County</t>
+          <t>Russell County</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$2,854,199</t>
+          <t>$24,485,737</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6.91%</t>
+          <t>4.14%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>-23.96%</t>
+          <t>-69.49%</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Simpson County</t>
+          <t>Scott County</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$2,124,538</t>
+          <t>$4,853,463</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4.04%</t>
+          <t>10.33%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-7.04%</t>
+          <t>-4.48%</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Taylor County</t>
+          <t>Shelby County</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$14,039,483</t>
+          <t>$2,854,199</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>5.93%</t>
+          <t>6.91%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>-4.24%</t>
+          <t>-23.96%</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Todd County</t>
+          <t>Simpson County</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$243,391</t>
+          <t>$2,124,538</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>40.26%</t>
+          <t>4.04%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>34.98%</t>
+          <t>-7.04%</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Trigg County</t>
+          <t>Taylor County</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3513,209 +3513,209 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$4,000,813</t>
+          <t>$14,039,483</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>18.57%</t>
+          <t>5.93%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>5.06%</t>
+          <t>-4.24%</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Union County</t>
+          <t>Todd County</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$991,472</t>
+          <t>$243,391</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3.53%</t>
+          <t>40.26%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-0.65%</t>
+          <t>34.98%</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Warren County</t>
+          <t>Trigg County</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$83,153,932</t>
+          <t>$4,000,813</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>15.31%</t>
+          <t>18.57%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-12.04%</t>
+          <t>5.06%</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>59.09%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Union County</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$927,425</t>
+          <t>$991,472</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>9.35%</t>
+          <t>3.53%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>-5.82%</t>
+          <t>-0.65%</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Webster County</t>
+          <t>Warren County</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$4,164,696</t>
+          <t>$83,153,932</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-32.44%</t>
+          <t>15.31%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-48.42%</t>
+          <t>-12.04%</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>59.09%</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Whitley County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$14,560,603</t>
+          <t>$927,425</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>12.83%</t>
+          <t>9.35%</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>-48.39%</t>
+          <t>-5.82%</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Wolfe County</t>
+          <t>Webster County</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$243,224</t>
+          <t>$4,164,696</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>16.79%</t>
+          <t>-32.44%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>-58.60%</t>
+          <t>-48.42%</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3727,256 +3727,96 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Woodford County</t>
+          <t>Whitley County</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$7,753,443</t>
+          <t>$14,560,603</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3.83%</t>
+          <t>12.83%</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-5.32%</t>
+          <t>-48.39%</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Elliott County</t>
+          <t>Wolfe County</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$243,224</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>16.79%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-58.60%</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Carlisle County</t>
+          <t>Woodford County</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$7,753,443</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.83%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-5.32%</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Leslie County</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Trimble County</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Menifee County</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Casey County</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>1,138</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>$2,425,907,719</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>9.25%</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-10.73%</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>65.64%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3827,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3996,256 +3836,288 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$391,974,327</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.43%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-11.31%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>66.84%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Kentucky</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>1,138</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$232,687,714</t>
+          <t>$2,425,907,719</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.04%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-8.01%</t>
+          <t>-10.73%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>65.64%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$701,657,355</t>
+          <t>$391,974,327</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.43%</t>
+          <t>8.43%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-5.68%</t>
+          <t>-11.31%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61.81%</t>
+          <t>66.84%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$185,255,203</t>
+          <t>$232,687,714</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.54%</t>
+          <t>14.04%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-10.87%</t>
+          <t>-8.01%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>65.25%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>288</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$392,601,505</t>
+          <t>$701,657,355</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.56%</t>
+          <t>9.43%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-33.36%</t>
+          <t>-5.68%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>75.16%</t>
+          <t>61.81%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$521,731,615</t>
+          <t>$185,255,203</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>9.54%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-8.52%</t>
+          <t>-10.87%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>66.81%</t>
+          <t>65.25%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,138</t>
+          <t>157</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$2,425,907,719</t>
+          <t>$392,601,505</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>5.56%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-10.73%</t>
+          <t>-33.36%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>65.64%</t>
+          <t>75.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6th Congressional district</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$521,731,615</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.68%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-8.52%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>66.81%</t>
         </is>
       </c>
     </row>
@@ -4270,34 +4142,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4329,128 +4201,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>172</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$221,216,858</t>
+          <t>$1,912,379,164</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.43%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-11.32%</t>
+          <t>-6.46%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68.66%</t>
+          <t>68.02%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>268</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$45,565,038</t>
+          <t>$221,216,858</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>8.43%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.47%</t>
+          <t>-11.32%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64.00%</t>
+          <t>68.66%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>175</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$208,701,799</t>
+          <t>$45,565,038</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.18%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-13.11%</t>
+          <t>-11.47%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73.68%</t>
+          <t>64.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,912,379,164</t>
+          <t>$208,701,799</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.61%</t>
+          <t>8.18%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.46%</t>
+          <t>-13.11%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68.02%</t>
+          <t>73.68%</t>
         </is>
       </c>
     </row>
@@ -4539,34 +4411,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4598,7 +4470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4630,7 +4502,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4662,7 +4534,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4726,7 +4598,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4758,7 +4630,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4790,7 +4662,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4822,7 +4694,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4854,64 +4726,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,097,473,045</t>
+          <t>$109,402,514</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.51%</t>
+          <t>9.52%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-11.39%</t>
+          <t>3.13%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>67.84%</t>
+          <t>46.67%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$109,402,514</t>
+          <t>$1,097,473,045</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>7.51%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.13%</t>
+          <t>-11.39%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>46.67%</t>
+          <t>67.84%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/kentucky_overview.xlsx
+++ b/data/processed/state_overviews/kentucky_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>65.64%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>1,138</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$2,425,907,719</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.25%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-10.73%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>65.64%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.64%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,138</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$2,425,907,719</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.25%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.73%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.64%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$7,156,516</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>5.62%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-4.19%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$494,834</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>26.34%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>14.21%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$193,279</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>18.52%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.09%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$256,031</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>19.51%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-63.64%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$10,881,872</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.57%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-13.78%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$12,579,678</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>-3.25%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-45.76%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>45.45%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$5,212,953</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>8.56%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.87%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>45.45%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$898,338</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>19.19%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-3.55%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$23,963,041</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>7.00%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-17.65%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$1,544,214</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>5.56%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-10.92%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$243,801</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>3.45%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-54.72%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$10,759,010</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>13.96%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-40.08%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$3,235,039</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1.98%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$1,454,634</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>12.78%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>6.45%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$296,481</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-8.74%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$4,051,120</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>8.79%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-17.99%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$944,795</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>7.96%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-40.06%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>80.95%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$24,954,986</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>6.14%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-16.82%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>80.95%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$3,184,277</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>10.80%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-4.33%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$15,320,045</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>-11.13%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-65.72%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$20,610,359</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>3.27%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-61.04%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$2,896,874</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2.49%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-51.22%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$14,242,805</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>-7.44%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-75.43%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$1,243,671</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>9.14%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-0.09%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$5,637</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>-13.47%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-24.21%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$24,275,603</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>3.10%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>0.69%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>64.86%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$82,587,269</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>13.95%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-10.89%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>64.86%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$1,647,378</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>19.45%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-5.94%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$25,500</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>22.25%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>11.05%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>66.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>150</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$384,667,450</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>9.16%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-7.56%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>66.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$7,378,071</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2.79%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-94.72%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$42,413,220</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>6.18%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-81.49%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>68.97%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$191,869,128</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1.88%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-61.61%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>68.97%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$101,080</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>23.39%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-76.54%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$4,284,002</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-44.77%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$525</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>-21.31%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-21.96%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$175,818</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>19.50%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-48.18%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$21,499,690</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>12.10%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-51.22%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$3,514,347</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>-257.75%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-344.33%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$4,879,825</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>5.48%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-88.79%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$37,169,295</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>11.07%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-16.04%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$5,684,353</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>9.29%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-26.75%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$146,300</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>15.50%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>0.99%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$8,843</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>44.38%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>43.55%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>72.22%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$4,233,255</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>3.86%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-11.80%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>72.22%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$53,784</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>5.92%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-19.37%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$12,545,026</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>8.32%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-13.72%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$4,550</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>-4.23%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-12.61%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>61.99%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>292</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$701,931,666</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>9.43%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-5.63%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>61.99%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$9,532,261</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>14.18%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-3.98%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$21,906,771</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>4.45%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-67.38%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$119,715,122</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>10.46%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-4.01%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$2,997,554</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>-7.37%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-40.04%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$8,805,579</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>11.62%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-15.99%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$26,062</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>49.72%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>29.95%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$21,702,150</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>0.48%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-72.14%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$727,219</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>4.17%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$9,660,718</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>41.12%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-24.85%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$10,096,344</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>-1.41%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-42.25%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$10,923,762</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>-2.23%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-22.73%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$1,153,795</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>10.69%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-30.48%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$2,818,292</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>6.88%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-7.17%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$360,698</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>20.20%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-57.23%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$170,552</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>10.81%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>-46.81%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2580,27 +2580,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>65.00%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>$93,705,379</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>21.43%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-7.76%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>65.00%</t>
         </is>
       </c>
     </row>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>$32,894</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>3.37%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>-12.22%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2644,27 +2644,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>$23,432,853</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>8.91%</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>-5.72%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2676,27 +2676,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>$2,199,979</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>5.42%</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>-1.63%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2708,27 +2708,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>$5,869,781</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>0.05%</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>-22.14%</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>47.83%</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>$17,764,213</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>18.13%</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>3.92%</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>47.83%</t>
         </is>
       </c>
     </row>
@@ -2772,27 +2772,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>$2,000</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>16.67%</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>16.56%</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2804,27 +2804,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>$361,698</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>6.56%</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>-78.79%</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2836,27 +2836,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>$1,526,478</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>-11.41%</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2868,27 +2868,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>$16,000</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>46.76%</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>38.22%</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2900,27 +2900,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>$3,349,442</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>8.88%</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>-5.36%</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2932,27 +2932,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>$8,251,476</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>4.54%</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>-22.06%</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -2964,27 +2964,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>$18,214,902</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>-0.46%</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>-89.35%</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2996,27 +2996,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>$4,073,285</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>30.46%</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1.76%</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3028,27 +3028,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>$3,536,483</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>15.30%</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>4.17%</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -3060,27 +3060,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>$466,785</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>-9.02%</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>-22.92%</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3092,27 +3092,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>$2,764,330</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>11.39%</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>4.35%</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -3124,27 +3124,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>$2,279,835</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>8.83%</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>-64.15%</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3156,27 +3156,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>$46,047</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>-8.05%</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>-26.85%</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3188,27 +3188,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>84.21%</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>$97,707,399</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2.76%</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>-39.39%</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>84.21%</t>
         </is>
       </c>
     </row>
@@ -3220,27 +3220,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>$9,013,523</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>7.73%</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1.56%</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>42.86%</t>
         </is>
       </c>
     </row>
@@ -3252,27 +3252,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>$49,078</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>20.81%</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>8.34%</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3284,27 +3284,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>$34,850,521</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>4.47%</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>-45.44%</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3316,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>$181,569</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>6.42%</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>4.82%</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3348,27 +3348,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>$13,498,203</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>6.24%</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>-52.41%</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -3380,27 +3380,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>$24,485,737</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>4.14%</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>-69.49%</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -3412,27 +3412,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>$4,853,463</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>10.33%</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>-4.48%</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -3444,27 +3444,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>$2,854,199</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>6.91%</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>-23.96%</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -3476,27 +3476,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>$2,124,538</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>4.04%</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>-7.04%</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3508,27 +3508,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>$14,039,483</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>5.93%</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>-4.24%</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3540,27 +3540,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>$243,391</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>40.26%</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>34.98%</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3572,27 +3572,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>$4,000,813</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>18.57%</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>5.06%</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -3604,27 +3604,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>$991,472</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>3.53%</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>-0.65%</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -3636,27 +3636,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>59.09%</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>$83,153,932</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>15.31%</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>-12.04%</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>59.09%</t>
         </is>
       </c>
     </row>
@@ -3668,27 +3668,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>$927,425</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>9.35%</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>-5.82%</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3700,27 +3700,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>$4,164,696</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>-32.44%</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>-48.42%</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3732,27 +3732,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>$14,560,603</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>12.83%</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>-48.39%</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -3764,27 +3764,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>$243,224</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>16.79%</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>-58.60%</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3796,27 +3796,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>$7,753,443</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>3.83%</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>-5.32%</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -3841,27 +3841,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -3873,27 +3873,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -3905,219 +3905,219 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.64%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,138</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$2,425,907,719</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.25%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.73%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.64%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>66.84%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>196</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$391,974,327</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8.43%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-11.31%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>66.84%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>150</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$232,687,714</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>14.04%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-8.01%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>61.81%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>288</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$701,657,355</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>9.43%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-5.68%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>61.81%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>65.25%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>118</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$185,255,203</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9.54%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-10.87%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>65.25%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>75.16%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>157</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$392,601,505</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>5.56%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-33.36%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>75.16%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>66.81%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>229</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$521,731,615</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>9.68%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-8.52%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>66.81%</t>
         </is>
       </c>
     </row>
@@ -4142,187 +4142,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>376</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$33,776,806</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>11.03%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-10.50%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>68.66%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,912,379,164</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.61%</t>
+          <t>$221,216,858</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.46%</t>
+          <t>8.43%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68.02%</t>
+          <t>-11.32%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>64.00%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$221,216,858</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.43%</t>
+          <t>$45,565,038</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.32%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>68.66%</t>
+          <t>-11.47%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>73.68%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$45,565,038</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>$208,701,799</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-11.47%</t>
+          <t>8.18%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>64.00%</t>
+          <t>-13.11%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>68.02%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$208,701,799</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.18%</t>
+          <t>$1,912,379,164</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-13.11%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73.68%</t>
+          <t>-6.46%</t>
         </is>
       </c>
     </row>
@@ -4334,27 +4334,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>60.56%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>71</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$4,268,054</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>33.93%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-17.93%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>60.56%</t>
         </is>
       </c>
     </row>
@@ -4366,27 +4366,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>65.64%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1,138</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,425,907,719</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.25%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-10.73%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>65.64%</t>
         </is>
       </c>
     </row>
@@ -4411,155 +4411,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>52.00%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$49,416,704</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>18.76%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-2.58%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>52.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>69.23%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>91</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$58,594,861</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.50%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-8.44%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>69.23%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>48.84%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$14,968,183</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>14.17%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.84%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>48.84%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>71.54%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>123</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$331,727,508</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.87%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-16.27%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>71.54%</t>
         </is>
       </c>
     </row>
@@ -4571,219 +4571,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$246,518,162</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>11.41%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-1.15%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>54.55%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>69.83%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>358</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$295,229,457</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.30%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-15.56%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>69.83%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$912,676</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>3.88%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-6.99%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>69.05%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>84</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$207,602,507</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>8.41%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-26.75%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>69.05%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>42.31%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$14,062,102</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>15.95%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>6.41%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>42.31%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>67.84%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$109,402,514</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>$1,097,473,045</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.13%</t>
+          <t>7.51%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>46.67%</t>
+          <t>-11.39%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>46.67%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,097,473,045</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.51%</t>
+          <t>$109,402,514</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-11.39%</t>
+          <t>9.52%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>67.84%</t>
+          <t>3.13%</t>
         </is>
       </c>
     </row>
@@ -4795,27 +4795,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>65.64%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>1,138</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$2,425,907,719</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>9.25%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-10.73%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>65.64%</t>
         </is>
       </c>
     </row>
